--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035DB8F8-B9A2-4C28-A481-E5BDD8710BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B72B4-CCC2-448B-BA65-486ED2782819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12950" yWindow="10270" windowWidth="25540" windowHeight="10870" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="11700" yWindow="8240" windowWidth="25310" windowHeight="12530" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <author>MarkGent1</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{75E869BA-869D-48B1-BEC8-DC9AFF7C2594}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{7523D9F3-025E-4605-A6C8-700EBBD223E1}">
       <text>
         <r>
           <rPr>
@@ -91,8 +91,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 = SAM
-2 = CTS</t>
+SAM
+CTS</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="206">
   <si>
     <t>Source</t>
   </si>
@@ -259,9 +259,6 @@
     <t>GroupMark.SpeciesTypeCode</t>
   </si>
   <si>
-    <t>Is this 1:1 or 1:*?</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>PartyTypeId</t>
   </si>
   <si>
-    <t>Assume this is for Source System Id (e.g. CTS or SAM)?</t>
-  </si>
-  <si>
     <t>RoleTypeId</t>
   </si>
   <si>
@@ -710,6 +704,21 @@
   </si>
   <si>
     <t>GroupMark.ProductionUsageCode</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Not sure what this is?</t>
+  </si>
+  <si>
+    <t>Enum or string value</t>
+  </si>
+  <si>
+    <t>LOV Lookup? Not sure what this is?</t>
+  </si>
+  <si>
+    <t>Is this 1:1 or 1:*? In addition to the Herd data?</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,16 +1370,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1382,23 +1391,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1420,24 +1429,24 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1448,10 +1457,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1462,10 +1471,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1476,19 +1485,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -1503,7 +1512,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="30"/>
     </row>
@@ -1518,7 +1527,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="30"/>
     </row>
@@ -1533,7 +1542,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -1549,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1563,10 +1572,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1577,10 +1586,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1591,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1605,10 +1614,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1616,11 +1625,11 @@
         <v>40</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1673,10 +1682,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1687,10 +1696,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1701,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1715,10 +1724,10 @@
         <v>44</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1726,11 +1735,11 @@
         <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1741,10 +1750,10 @@
         <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1752,11 +1761,11 @@
         <v>47</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1767,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -1779,13 +1788,13 @@
         <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1793,11 +1802,11 @@
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1805,16 +1814,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>52</v>
+        <v>200</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1822,11 +1831,11 @@
         <v>50</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1849,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1864,16 +1873,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1885,23 +1894,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1914,10 +1923,10 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1928,42 +1937,42 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1971,203 +1980,203 @@
         <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2300,7 +2309,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2325,16 +2334,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="28" t="s">
@@ -2346,23 +2355,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2375,7 +2384,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2389,184 +2398,182 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2576,22 +2583,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2612,7 +2619,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2633,7 +2640,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2654,7 +2661,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -2667,15 +2674,15 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2683,15 +2690,15 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2699,23 +2706,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2725,15 +2732,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2741,35 +2748,35 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2779,7 +2786,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2792,65 +2799,65 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2865,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2891,16 +2898,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -2912,23 +2919,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2941,10 +2948,10 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2955,187 +2962,185 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="C8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="12"/>
     </row>
@@ -3144,22 +3149,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3180,7 +3185,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3201,7 +3206,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3222,7 +3227,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -3235,15 +3240,15 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -3251,15 +3256,15 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3267,24 +3272,24 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
@@ -3295,15 +3300,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -3311,36 +3316,36 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -3351,7 +3356,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3364,69 +3369,69 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3439,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3467,16 +3472,16 @@
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9"/>
@@ -3498,14 +3503,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3518,10 +3523,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3531,15 +3536,15 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -3547,130 +3552,133 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>63</v>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>190</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>201</v>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>110</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="5" t="s">
-        <v>197</v>
+      <c r="F14" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -3684,26 +3692,27 @@
       <c r="A20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="E21"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
@@ -3728,7 +3737,6 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="9"/>
@@ -3736,31 +3744,30 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -3770,6 +3777,14 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3781,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A6389-3CAC-4BFC-B100-395F08EF1093}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3795,83 +3810,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>138</v>
+      <c r="A3" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>177</v>
+      <c r="A5" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>110</v>
+      <c r="A6" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B72B4-CCC2-448B-BA65-486ED2782819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40098D-4482-4E49-9235-F866FBBA086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="8240" windowWidth="25310" windowHeight="12530" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="14990" yWindow="40" windowWidth="23580" windowHeight="7840" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,31 @@
     <author>MarkGent1</author>
   </authors>
   <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{AE1B0A95-DE1A-42F6-BC28-59C473E660CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MarkGent1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Person
+Company</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A12" authorId="0" shapeId="0" xr:uid="{7523D9F3-025E-4605-A6C8-700EBBD223E1}">
       <text>
         <r>
@@ -101,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
   <si>
     <t>Source</t>
   </si>
@@ -250,15 +275,6 @@
     <t>HoldingStatus</t>
   </si>
   <si>
-    <t>GroupMark.SpeciesTypeId</t>
-  </si>
-  <si>
-    <t>GroupMark.ProductionUsageId</t>
-  </si>
-  <si>
-    <t>GroupMark.SpeciesTypeCode</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -349,9 +365,6 @@
     <t>H1000001</t>
   </si>
   <si>
-    <t>GroupMark.GroupMark</t>
-  </si>
-  <si>
     <t>ProductionUsageId</t>
   </si>
   <si>
@@ -439,12 +452,6 @@
     <t>ProductionUsageCode</t>
   </si>
   <si>
-    <t>Joins to Holding.ANIMAL_SPECIES_CODE</t>
-  </si>
-  <si>
-    <t>Joins to Holding.ANIMAL_PRODUCTION_USAGE_CODE</t>
-  </si>
-  <si>
     <t>TbTestingIntervalId</t>
   </si>
   <si>
@@ -496,9 +503,6 @@
     <t>SamParty</t>
   </si>
   <si>
-    <t>Is this used to form Group Mark at all as the Mural diagram looks to join 2 fields.</t>
-  </si>
-  <si>
     <t>ROLES</t>
   </si>
   <si>
@@ -661,9 +665,6 @@
     <t>ProductionTypeCode</t>
   </si>
   <si>
-    <t>Reference data table mentioned but can see where this comes from?</t>
-  </si>
-  <si>
     <t>PartyRoleTypeId</t>
   </si>
   <si>
@@ -703,29 +704,44 @@
     <t>RoleTypeName</t>
   </si>
   <si>
-    <t>GroupMark.ProductionUsageCode</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Not sure what this is?</t>
-  </si>
-  <si>
     <t>Enum or string value</t>
   </si>
   <si>
-    <t>LOV Lookup? Not sure what this is?</t>
-  </si>
-  <si>
-    <t>Is this 1:1 or 1:*? In addition to the Herd data?</t>
+    <t>CPH_RELATIONSHIP_TYPE</t>
+  </si>
+  <si>
+    <t>SECONDARY_CPH</t>
+  </si>
+  <si>
+    <t>FCLTY_SUB_BSNSS_ACTVTY_CODE</t>
+  </si>
+  <si>
+    <t>GroupMark</t>
+  </si>
+  <si>
+    <t>Person or Business (rules tbc)</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Multiple records with same CPH but different FACILITY_TYPE_CODE's</t>
+  </si>
+  <si>
+    <t>Multiple records with same CPH but different FACILITY_BUSINSS_ACTVTY_CODE's</t>
+  </si>
+  <si>
+    <t>Reference data table mentioned but can see where this comes from? TBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +803,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1343,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1370,16 +1399,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1391,23 +1420,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1425,28 +1454,28 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1457,10 +1486,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1471,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1485,19 +1514,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -1512,7 +1541,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="30"/>
     </row>
@@ -1527,7 +1556,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="30"/>
     </row>
@@ -1542,7 +1571,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -1558,10 +1587,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,10 +1601,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1586,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1600,243 +1629,261 @@
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="5">
-        <v>25962203</v>
-      </c>
-      <c r="F25" s="5">
-        <v>25962203</v>
+      <c r="C25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5">
-        <v>399568</v>
+        <v>25962203</v>
       </c>
       <c r="F26" s="5">
-        <v>399568</v>
+        <v>25962203</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5">
-        <v>579087</v>
+        <v>399568</v>
       </c>
       <c r="F27" s="5">
-        <v>579087</v>
+        <v>399568</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="E28" s="5">
+        <v>579087</v>
+      </c>
+      <c r="F28" s="5">
+        <v>579087</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="C35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,7 +1896,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,16 +1920,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1894,23 +1941,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1923,56 +1970,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1980,203 +2027,199 @@
         <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2309,7 +2352,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2334,16 +2377,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="28" t="s">
@@ -2355,23 +2398,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2384,196 +2427,198 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2583,22 +2628,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2619,7 +2664,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2640,7 +2685,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2661,7 +2706,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -2674,15 +2719,15 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2690,15 +2735,15 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2706,23 +2751,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2732,15 +2777,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2748,35 +2793,35 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2786,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2799,65 +2844,65 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2872,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2898,16 +2943,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -2919,23 +2964,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2948,199 +2993,201 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="12"/>
     </row>
@@ -3149,22 +3196,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3185,7 +3232,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3206,7 +3253,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3227,7 +3274,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -3240,15 +3287,15 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -3256,15 +3303,15 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3272,24 +3319,24 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
@@ -3300,15 +3347,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -3316,36 +3363,36 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -3356,7 +3403,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3369,69 +3416,69 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C38" s="9"/>
       <c r="E38" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C39" s="9"/>
       <c r="E39" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3446,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3472,16 +3519,16 @@
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9"/>
@@ -3503,14 +3550,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3523,28 +3570,28 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -3552,39 +3599,41 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
@@ -3595,77 +3644,77 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -3799,7 +3848,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3810,10 +3859,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -3821,26 +3870,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3848,10 +3897,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3859,34 +3908,34 @@
         <v>46</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3894,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40098D-4482-4E49-9235-F866FBBA086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37A45B-50BC-4822-803C-8EDB08D2EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14990" yWindow="40" windowWidth="23580" windowHeight="7840" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="12280" yWindow="8160" windowWidth="28110" windowHeight="12210" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="203">
   <si>
     <t>Source</t>
   </si>
@@ -1372,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,37 +1727,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>60</v>
-      </c>
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>96</v>
@@ -1765,109 +1757,115 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="7" t="s">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>96</v>
@@ -1875,15 +1873,47 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1896,7 +1926,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2351,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2917,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3493,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37A45B-50BC-4822-803C-8EDB08D2EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449C433-285A-4E64-BD9E-220258C04D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="8160" windowWidth="28110" windowHeight="12210" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="9760" yWindow="8070" windowWidth="28110" windowHeight="12210" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40098D-4482-4E49-9235-F866FBBA086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449C433-285A-4E64-BD9E-220258C04D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14990" yWindow="40" windowWidth="23580" windowHeight="7840" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="9760" yWindow="8070" windowWidth="28110" windowHeight="12210" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="203">
   <si>
     <t>Source</t>
   </si>
@@ -1372,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,37 +1727,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>60</v>
-      </c>
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>96</v>
@@ -1765,109 +1757,115 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="7" t="s">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>96</v>
@@ -1875,15 +1873,47 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2351,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2917,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3493,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449C433-285A-4E64-BD9E-220258C04D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4326FC-6CDA-483F-B8EA-0837EA6F76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="8070" windowWidth="28110" windowHeight="12210" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="-70" yWindow="940" windowWidth="19330" windowHeight="20020" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="204">
   <si>
     <t>Source</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>Reference data table mentioned but can see where this comes from? TBC</t>
+  </si>
+  <si>
+    <t>Is this either an ORG or a Person?</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,7 +1929,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2381,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2586,7 +2589,9 @@
       <c r="B15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
         <v>150</v>
@@ -2948,7 +2953,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3523,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3878,7 +3883,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://defra-my.sharepoint.com/personal/mark_gent_defra_gov_uk/Documents/Documents/KRDS/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4326FC-6CDA-483F-B8EA-0837EA6F76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{4A4326FC-6CDA-483F-B8EA-0837EA6F76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B6C156-65E6-455D-BF93-A74D900BC68A}"/>
   <bookViews>
-    <workbookView xWindow="-70" yWindow="940" windowWidth="19330" windowHeight="20020" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="28725" yWindow="5970" windowWidth="28515" windowHeight="9510" activeTab="3" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="259">
   <si>
     <t>Source</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>FEATURE_NAME</t>
-  </si>
-  <si>
     <t>CPH_TYPE</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>12/345/6789</t>
   </si>
   <si>
-    <t>NY 99568 79087</t>
-  </si>
-  <si>
     <t>OX1 3EQ</t>
   </si>
   <si>
@@ -332,12 +326,6 @@
     <t>CTT-BEEF</t>
   </si>
   <si>
-    <t>HERDMARK</t>
-  </si>
-  <si>
-    <t>ANIMAL_PURPOSE_CODE</t>
-  </si>
-  <si>
     <t>INTERVAL</t>
   </si>
   <si>
@@ -464,15 +452,6 @@
     <t>CPHH *</t>
   </si>
   <si>
-    <t>KEEPER_PARTY_IDS *</t>
-  </si>
-  <si>
-    <t>OWNER_PARTY_IDS *</t>
-  </si>
-  <si>
-    <t>TBC - Currently seems to be a migration status field</t>
-  </si>
-  <si>
     <t>SamCphHolding</t>
   </si>
   <si>
@@ -482,9 +461,6 @@
     <t>1-3, 10-12</t>
   </si>
   <si>
-    <t>Composite? Seems to map to single property.</t>
-  </si>
-  <si>
     <t>SamHerd</t>
   </si>
   <si>
@@ -539,9 +515,6 @@
     <t>12/345/6789, 12/345/6666</t>
   </si>
   <si>
-    <t>Parsed set of CPH's</t>
-  </si>
-  <si>
     <t>PartyTitleTypeIdentifier</t>
   </si>
   <si>
@@ -644,12 +617,6 @@
     <t>Roles[].RoleTypeId</t>
   </si>
   <si>
-    <t>Inferred as 'Holder'</t>
-  </si>
-  <si>
-    <t>Holder</t>
-  </si>
-  <si>
     <t>Roles[].SourceRoleName</t>
   </si>
   <si>
@@ -710,9 +677,6 @@
     <t>CPH_RELATIONSHIP_TYPE</t>
   </si>
   <si>
-    <t>SECONDARY_CPH</t>
-  </si>
-  <si>
     <t>FCLTY_SUB_BSNSS_ACTVTY_CODE</t>
   </si>
   <si>
@@ -738,13 +702,214 @@
   </si>
   <si>
     <t>Is this either an ORG or a Person?</t>
+  </si>
+  <si>
+    <t>PAON_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SAON_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TO ADD</t>
+  </si>
+  <si>
+    <t>FEATURE_NAME *</t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>ND2150071600</t>
+  </si>
+  <si>
+    <t>SECONDARY_CPH *</t>
+  </si>
+  <si>
+    <t>TO ADD IN AS COMPOSITE KEY</t>
+  </si>
+  <si>
+    <t>TO ADD INTO SILVER as Sub Division</t>
+  </si>
+  <si>
+    <t>Location.Address.CountrySubDivision</t>
+  </si>
+  <si>
+    <t>ANIMAL_SPECIES_CODE *</t>
+  </si>
+  <si>
+    <t>TO ADD IN To Help form Gold</t>
+  </si>
+  <si>
+    <t>Issue with Data currently</t>
+  </si>
+  <si>
+    <t>12/345/9999</t>
+  </si>
+  <si>
+    <t>CTT, SHP</t>
+  </si>
+  <si>
+    <t>CTT-BEEF, SHP-MEAT, SHP-NK</t>
+  </si>
+  <si>
+    <t>L135802 434203</t>
+  </si>
+  <si>
+    <t>The Estate Office</t>
+  </si>
+  <si>
+    <t>Princess Road</t>
+  </si>
+  <si>
+    <t>The Estate Office | Princess Road</t>
+  </si>
+  <si>
+    <t>MANCHESTER</t>
+  </si>
+  <si>
+    <t>M41 5SQ</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>PCPHLANDUSEDBYTCPH</t>
+  </si>
+  <si>
+    <t>73/285/0033</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SHP-MEAT,SHP-NK</t>
+  </si>
+  <si>
+    <t>Cherry Lane</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>TB-AFU-NA</t>
+  </si>
+  <si>
+    <t>TO ADD INTO SILVER (may be of use)</t>
+  </si>
+  <si>
+    <t>HERDMARK *</t>
+  </si>
+  <si>
+    <t>ANIMAL_PURPOSE_CODE *</t>
+  </si>
+  <si>
+    <t>KEEPER_PARTY_IDS</t>
+  </si>
+  <si>
+    <t>OWNER_PARTY_IDS</t>
+  </si>
+  <si>
+    <t>Composite from INTERVAL and UNIT_OF_TIME</t>
+  </si>
+  <si>
+    <t>DiseaseType</t>
+  </si>
+  <si>
+    <t>IntervalUnitOfTime</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeeperPartyIdList </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwnerPartyIdList </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountyParishHoldingHerd </t>
+  </si>
+  <si>
+    <t>Trimmed trailing 3 chars</t>
+  </si>
+  <si>
+    <t>87/624/0042/25</t>
+  </si>
+  <si>
+    <t>12/345/6789/01</t>
+  </si>
+  <si>
+    <t>87/624/0042</t>
+  </si>
+  <si>
+    <t>SHP-MEAT-DLR</t>
+  </si>
+  <si>
+    <t>C10001</t>
+  </si>
+  <si>
+    <t>C10002</t>
+  </si>
+  <si>
+    <t>Inferred as code 'CPHHOLDER'</t>
+  </si>
+  <si>
+    <t>CPHHOLDER</t>
+  </si>
+  <si>
+    <t>CPH Holder</t>
+  </si>
+  <si>
+    <t>Parsed set of CPH's. Check if we can make this work better to avoid repeat calls and this needs removing from the Party but including in the relationship doc.</t>
+  </si>
+  <si>
+    <t>Address.CountrySubDivision</t>
+  </si>
+  <si>
+    <t>01/089/5301,09/020/5300,09/083/5301</t>
+  </si>
+  <si>
+    <t>N | Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Roles[].RoleTypeCode</t>
+  </si>
+  <si>
+    <t>RoleTypeCode</t>
+  </si>
+  <si>
+    <t>LIVESTOCKOWNER</t>
+  </si>
+  <si>
+    <t>Livestock Owner</t>
+  </si>
+  <si>
+    <t>LIVESTOCKKEEPER,LIVESTOCKOWNER</t>
+  </si>
+  <si>
+    <t>10000000-0000-0000-0000-000000000001,10000000-0000-0000-0000-000000000002</t>
+  </si>
+  <si>
+    <t>Livestock Keeper,Livestock Owner</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +984,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -948,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1019,9 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1061,6 +1231,42 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,9 +1285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1119,7 +1325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1225,7 +1431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,7 +1573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,23 +1581,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" style="3"/>
-    <col min="2" max="2" width="49.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="42.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.54296875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="37.54296875" style="3"/>
+    <col min="6" max="6" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="3.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,16 +1612,20 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1420,29 +1634,43 @@
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1455,181 +1683,232 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="33"/>
+      <c r="C11" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="32"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="29"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="H15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="31"/>
+      <c r="H20" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5">
-        <v>12</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>53</v>
@@ -1637,286 +1916,454 @@
       <c r="F22" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="H25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="5">
+        <v>25962203</v>
+      </c>
+      <c r="F28" s="5">
+        <v>25962203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5">
+        <v>399568</v>
+      </c>
+      <c r="F29" s="5">
+        <v>399568</v>
+      </c>
+      <c r="H29" s="3">
+        <v>321500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>321500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5">
+        <v>579087</v>
+      </c>
+      <c r="F30" s="5">
+        <v>579087</v>
+      </c>
+      <c r="H30" s="3">
+        <v>971600</v>
+      </c>
+      <c r="I30" s="3">
+        <v>971600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="H32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="H33" s="4">
+        <v>48</v>
+      </c>
+      <c r="I33" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="H34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="H37" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="5">
-        <v>25962203</v>
-      </c>
-      <c r="F26" s="5">
-        <v>25962203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="5">
-        <v>399568</v>
-      </c>
-      <c r="F27" s="5">
-        <v>399568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5">
-        <v>579087</v>
-      </c>
-      <c r="F28" s="5">
-        <v>579087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="H39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="H43" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="H44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="H46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="H47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1926,23 +2373,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.6328125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="37.54296875" style="3"/>
+    <col min="6" max="6" width="35.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1953,16 +2404,20 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1971,29 +2426,43 @@
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
+      <c r="H2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="42" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2003,13 +2472,19 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2017,299 +2492,373 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="H8" s="3">
+        <v>530509</v>
+      </c>
+      <c r="I8" s="3">
+        <v>530509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>235</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2323,7 +2872,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2351,14 +2900,14 @@
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2372,34 +2921,51 @@
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
     </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:F6 E17" numberStoredAsText="1"/>
+    <ignoredError sqref="E6:F6 E18:F18 H6:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.36328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="1.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.08984375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2410,47 +2976,63 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2460,13 +3042,13 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2474,220 +3056,225 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="29"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2695,249 +3282,325 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="30"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="29"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="44"/>
+      <c r="H24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="5">
+      <c r="F26" s="29"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5">
         <v>12</v>
       </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="F27" s="29"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="29"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="H29" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="H37" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B38" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5">
+        <v>25962203</v>
+      </c>
+      <c r="F38" s="5">
+        <v>25962203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="H39" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5">
-        <v>25962203</v>
-      </c>
-      <c r="F36" s="5">
-        <v>25962203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>173</v>
+      <c r="C43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2950,24 +3613,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.7265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="1.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2978,16 +3643,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -2997,28 +3662,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -3028,13 +3699,16 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -3042,220 +3716,262 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3264,262 +3980,343 @@
         <v>3</v>
       </c>
       <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="50"/>
+      <c r="H24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
       <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="5">
+      <c r="F26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5">
         <v>12</v>
       </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="F27" s="21"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="49"/>
+      <c r="H29" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="H33" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="H37" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B38" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5">
+        <v>25962203</v>
+      </c>
+      <c r="F38" s="5">
+        <v>25962203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
+      <c r="C40" s="9"/>
+      <c r="E40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="E41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5">
-        <v>25962203</v>
-      </c>
-      <c r="F36" s="5">
-        <v>25962203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="E38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="E39" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>187</v>
+      <c r="C42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:F6 E17:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="E6:F6 E17:F17 H17:I17 I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3528,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3552,18 +4349,18 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9"/>
@@ -3585,14 +4382,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3605,10 +4402,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3618,15 +4415,15 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>133</v>
+      <c r="A7" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -3634,40 +4431,40 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3675,85 +4472,95 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5" t="s">
-        <v>187</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="9"/>
@@ -3888,16 +4695,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="36" customWidth="1"/>
     <col min="3" max="3" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -3905,83 +4712,83 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>175</v>
+      <c r="A5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>175</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>175</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>175</v>
+        <v>122</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>175</v>
+      <c r="B12" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://defra-my.sharepoint.com/personal/mark_gent_defra_gov_uk/Documents/Documents/KRDS/Mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{4A4326FC-6CDA-483F-B8EA-0837EA6F76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B6C156-65E6-455D-BF93-A74D900BC68A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48BCD4E-D633-498D-B255-D21C73C7FE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28725" yWindow="5970" windowWidth="28515" windowHeight="9510" activeTab="3" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="24250" windowHeight="15280" activeTab="2" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1240,9 +1240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1285,9 +1282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1325,7 +1322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1431,7 +1428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1573,7 +1570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2433,11 +2430,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="42" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="10"/>
@@ -2947,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3298,14 +3295,14 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>193</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="40"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="43"/>
       <c r="H24" s="20" t="s">
         <v>209</v>
       </c>
@@ -3362,16 +3359,16 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
       <c r="H29" s="23" t="s">
         <v>210</v>
       </c>
@@ -3615,7 +3612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3995,14 +3992,14 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>193</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="40"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="49"/>
       <c r="H24" s="20" t="s">
         <v>209</v>
       </c>
@@ -4059,16 +4056,16 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
       <c r="H29" s="23" t="s">
         <v>210</v>
       </c>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48BCD4E-D633-498D-B255-D21C73C7FE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA7787-16B7-402B-BE67-26BF5EBE1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="24250" windowHeight="15280" activeTab="2" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="-40" yWindow="5600" windowWidth="24250" windowHeight="15280" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="260">
   <si>
     <t>Source</t>
   </si>
@@ -710,9 +710,6 @@
     <t>SAON_DESCRIPTION</t>
   </si>
   <si>
-    <t>TO ADD</t>
-  </si>
-  <si>
     <t>FEATURE_NAME *</t>
   </si>
   <si>
@@ -725,9 +722,6 @@
     <t>SECONDARY_CPH *</t>
   </si>
   <si>
-    <t>TO ADD IN AS COMPOSITE KEY</t>
-  </si>
-  <si>
     <t>TO ADD INTO SILVER as Sub Division</t>
   </si>
   <si>
@@ -737,9 +731,6 @@
     <t>ANIMAL_SPECIES_CODE *</t>
   </si>
   <si>
-    <t>TO ADD IN To Help form Gold</t>
-  </si>
-  <si>
     <t>Issue with Data currently</t>
   </si>
   <si>
@@ -800,9 +791,6 @@
     <t>TB-AFU-NA</t>
   </si>
   <si>
-    <t>TO ADD INTO SILVER (may be of use)</t>
-  </si>
-  <si>
     <t>HERDMARK *</t>
   </si>
   <si>
@@ -903,6 +891,21 @@
   </si>
   <si>
     <t>Business</t>
+  </si>
+  <si>
+    <t>SecondaryCph</t>
+  </si>
+  <si>
+    <t>CphRelationshipType</t>
+  </si>
+  <si>
+    <t>PremiseSubActivityTypeCode</t>
+  </si>
+  <si>
+    <t>MovementRestrictionReasonCode</t>
+  </si>
+  <si>
+    <t>ProductionUsageCodeList</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1189,15 +1192,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1211,13 +1205,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1240,28 +1228,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1705,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1725,8 +1713,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>195</v>
+      <c r="A9" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1738,10 +1726,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1768,13 +1756,13 @@
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
@@ -1782,15 +1770,15 @@
         <v>110</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="41" t="s">
-        <v>211</v>
+      <c r="I11" s="36" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="26"/>
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
     </row>
@@ -1801,7 +1789,7 @@
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="26"/>
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
     </row>
@@ -1809,22 +1797,20 @@
       <c r="A14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="26"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="H15" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="21"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="38"/>
+      <c r="H15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -1833,7 +1819,7 @@
       <c r="E16" s="5">
         <v>10</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="26"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
     </row>
@@ -1841,7 +1827,7 @@
       <c r="A17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="26"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
     </row>
@@ -1852,7 +1838,7 @@
       <c r="E18" s="5">
         <v>12</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="26"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
@@ -1860,25 +1846,23 @@
       <c r="A19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="26"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="31"/>
-      <c r="H20" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="25"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -1894,10 +1878,10 @@
         <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1914,10 +1898,10 @@
         <v>53</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1948,31 +1932,31 @@
         <v>51</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="H25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>214</v>
+      <c r="B25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2072,73 +2056,67 @@
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="H32" s="4" t="s">
+      <c r="B32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="H33" s="4">
+      <c r="B33" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="9">
         <v>48</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="H34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>222</v>
+      <c r="B34" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2175,37 +2153,37 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>216</v>
+      <c r="B37" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2284,17 +2262,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="H43" s="4" t="s">
-        <v>223</v>
+      <c r="B43" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2305,66 +2283,69 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="E46" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="H46" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="E47" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="H44" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="H46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="H47" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>219</v>
+      <c r="F47" s="10"/>
+      <c r="H47" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2372,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2503,7 +2484,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>184</v>
@@ -2528,20 +2509,20 @@
         <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2550,12 +2531,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="5"/>
       <c r="I10" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2574,10 +2555,10 @@
         <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -2599,7 +2580,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>103</v>
@@ -2613,10 +2594,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2646,8 +2627,8 @@
       <c r="C15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
@@ -2659,50 +2640,44 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="40" t="s">
+      <c r="B18" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="E18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="40" t="s">
+      <c r="B19" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="E19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2712,7 +2687,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
@@ -2720,15 +2695,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
@@ -2769,10 +2744,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>81</v>
@@ -2785,18 +2760,18 @@
         <v>77</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>81</v>
@@ -2809,10 +2784,10 @@
         <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2944,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2989,16 +2964,16 @@
         <v>115</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3077,7 +3052,7 @@
       <c r="B9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="7"/>
@@ -3171,10 +3146,10 @@
       <c r="C15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="35" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3219,10 +3194,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="25" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3254,8 +3229,8 @@
         <v>110</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="41" t="s">
-        <v>211</v>
+      <c r="I20" s="36" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3265,7 +3240,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="26"/>
       <c r="H21" s="20"/>
       <c r="I21" s="21"/>
     </row>
@@ -3279,7 +3254,7 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="27"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
     </row>
@@ -3290,23 +3265,20 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="26"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="43"/>
-      <c r="H24" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="21"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="38"/>
+      <c r="H24" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
@@ -3318,7 +3290,7 @@
       <c r="E25" s="5">
         <v>10</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
@@ -3329,7 +3301,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
@@ -3343,7 +3315,7 @@
       <c r="E27" s="5">
         <v>12</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="26"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
     </row>
@@ -3354,25 +3326,23 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="26"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="H29" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="25"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="H29" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -3422,18 +3392,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="B33" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -3487,11 +3454,11 @@
         <v>92</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3511,21 +3478,21 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="40"/>
+      <c r="F39" s="35"/>
       <c r="H39" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -3543,13 +3510,13 @@
         <v>163</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3569,17 +3536,17 @@
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>244</v>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -3592,12 +3559,12 @@
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3612,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3748,7 +3715,7 @@
       <c r="B9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="7"/>
@@ -3757,7 +3724,7 @@
         <v>187</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3911,16 +3878,16 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="25" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3951,8 +3918,8 @@
         <v>110</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="41" t="s">
-        <v>211</v>
+      <c r="I20" s="36" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3991,19 +3958,16 @@
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="49"/>
-      <c r="H24" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="21"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="39"/>
+      <c r="H24" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
@@ -4055,21 +4019,19 @@
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="H29" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="25"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="44"/>
+      <c r="H29" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -4119,20 +4081,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="H33" s="4" t="s">
-        <v>214</v>
+      <c r="B33" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4191,7 +4150,7 @@
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4260,10 +4219,10 @@
         <v>176</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4278,22 +4237,22 @@
         <v>55</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="4" t="s">
         <v>176</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4307,7 +4266,7 @@
         <v>176</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4305,7 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,7 +4378,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -4455,7 +4414,7 @@
       <c r="B9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="7"/>
@@ -4469,7 +4428,7 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
@@ -4516,10 +4475,10 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4536,14 +4495,14 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40" t="s">
-        <v>253</v>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4556,7 +4515,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4692,7 +4651,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="31" customWidth="1"/>
     <col min="3" max="3" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4700,7 +4659,7 @@
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4711,7 +4670,7 @@
       <c r="A3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4719,15 +4678,15 @@
       <c r="A4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4735,7 +4694,7 @@
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C6" t="s">
@@ -4746,7 +4705,7 @@
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4754,7 +4713,7 @@
       <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4762,7 +4721,7 @@
       <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4770,7 +4729,7 @@
       <c r="A11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C11" t="s">
@@ -4781,7 +4740,7 @@
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C12" t="s">

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA7787-16B7-402B-BE67-26BF5EBE1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302925E5-9893-4894-A6FD-2B5E19DA1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="5600" windowWidth="24250" windowHeight="15280" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="14640" yWindow="4260" windowWidth="22410" windowHeight="15990" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SAM Party" sheetId="3" r:id="rId4"/>
     <sheet name="Party Roles" sheetId="6" r:id="rId5"/>
     <sheet name="LOVs Required" sheetId="5" r:id="rId6"/>
+    <sheet name="TODOs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="270">
   <si>
     <t>Source</t>
   </si>
@@ -701,9 +702,6 @@
     <t>Reference data table mentioned but can see where this comes from? TBC</t>
   </si>
   <si>
-    <t>Is this either an ORG or a Person?</t>
-  </si>
-  <si>
     <t>PAON_DESCRIPTION</t>
   </si>
   <si>
@@ -869,12 +867,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Roles[].RoleTypeCode</t>
-  </si>
-  <si>
-    <t>RoleTypeCode</t>
-  </si>
-  <si>
     <t>LIVESTOCKOWNER</t>
   </si>
   <si>
@@ -906,13 +898,52 @@
   </si>
   <si>
     <t>ProductionUsageCodeList</t>
+  </si>
+  <si>
+    <t>Multiple silver holdings</t>
+  </si>
+  <si>
+    <t>Manage holders differently vs CPHS</t>
+  </si>
+  <si>
+    <t>PartyInitials</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Holding composite keys</t>
+  </si>
+  <si>
+    <t>Holder composite keys</t>
+  </si>
+  <si>
+    <t>Party composite keys</t>
+  </si>
+  <si>
+    <t>Herd composite keys</t>
+  </si>
+  <si>
+    <t>IsHolder</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Add created Date GOLD</t>
+  </si>
+  <si>
+    <t>Add json properties</t>
+  </si>
+  <si>
+    <t>Move upsert methods into shared service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,6 +1023,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1124,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1252,6 +1290,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1714,7 +1753,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1726,10 +1765,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1771,7 +1810,7 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1803,12 +1842,12 @@
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="38"/>
       <c r="H15" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="39"/>
     </row>
@@ -1852,7 +1891,7 @@
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
@@ -1860,7 +1899,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="43"/>
       <c r="H20" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I20" s="44"/>
     </row>
@@ -1878,10 +1917,10 @@
         <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1898,10 +1937,10 @@
         <v>53</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1932,10 +1971,10 @@
         <v>51</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -1943,20 +1982,20 @@
         <v>93</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2056,16 +2095,16 @@
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -2073,7 +2112,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="13"/>
       <c r="E32" s="10"/>
@@ -2090,7 +2129,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="13"/>
       <c r="E33" s="10"/>
@@ -2107,16 +2146,16 @@
         <v>67</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="13"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="H34" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2158,32 +2197,32 @@
         <v>182</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="H37" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2267,12 +2306,12 @@
         <v>183</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="H43" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2283,15 +2322,15 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="H44" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -2299,28 +2338,28 @@
         <v>99</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="13"/>
       <c r="E46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F46" s="10"/>
       <c r="H46" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -2328,18 +2367,18 @@
         <v>35</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C47" s="13"/>
       <c r="E47" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" s="10"/>
       <c r="H47" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2353,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2484,7 +2523,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>184</v>
@@ -2509,20 +2548,20 @@
         <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2531,12 +2570,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="5"/>
       <c r="I10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2555,10 +2594,10 @@
         <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -2580,7 +2619,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>103</v>
@@ -2594,10 +2633,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2645,7 +2684,7 @@
         <v>98</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="13"/>
       <c r="E17" s="10"/>
@@ -2656,7 +2695,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="13"/>
       <c r="E18" s="10" t="s">
@@ -2671,7 +2710,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="13"/>
       <c r="E19" s="10" t="s">
@@ -2687,7 +2726,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
@@ -2700,7 +2739,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2744,10 +2783,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>81</v>
@@ -2760,18 +2799,18 @@
         <v>77</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>81</v>
@@ -2784,10 +2823,10 @@
         <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2920,7 +2959,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2992,7 +3031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
@@ -3004,100 +3043,94 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C10" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>130</v>
@@ -3107,446 +3140,450 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="E16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F16" s="10" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="26"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="26"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="38"/>
-      <c r="H24" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="38"/>
+      <c r="H25" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
       <c r="F26" s="26"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="5">
-        <v>12</v>
-      </c>
       <c r="F27" s="26"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
       <c r="F28" s="26"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="H29" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>158</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="H30" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="H38" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="H37" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5">
         <v>25962203</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="5">
         <v>25962203</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="35" t="s">
+      <c r="C40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="H39" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
-        <v>160</v>
+      <c r="F40" s="35"/>
+      <c r="H40" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="7" t="s">
+      <c r="I43" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -3559,18 +3596,18 @@
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6 E17:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="E7 E18:F18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3580,7 +3617,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3654,116 +3691,110 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="E8" s="10" t="s">
+      <c r="C9" s="13"/>
+      <c r="E9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C10" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>137</v>
+      <c r="I10" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>130</v>
@@ -3773,486 +3804,493 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+        <v>259</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>140</v>
+        <v>260</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>143</v>
+      <c r="E16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="39"/>
-      <c r="H24" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="39"/>
+      <c r="H25" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="5">
-        <v>12</v>
-      </c>
       <c r="F27" s="21"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="44"/>
-      <c r="H29" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>158</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="44"/>
+      <c r="H30" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="H33" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="H37" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="F38" s="12"/>
+      <c r="H38" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5">
         <v>25962203</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="5">
         <v>25962203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="E40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="C41" s="9"/>
       <c r="E41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="E42" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="7" t="s">
+      <c r="H42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>251</v>
+      <c r="I43" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4266,13 +4304,13 @@
         <v>176</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:F6 E17:F17 H17:I17 I6" numberStoredAsText="1"/>
+    <ignoredError sqref="E7:F7 E18:F18 H18:I18 I7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4282,7 +4320,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4436,73 +4474,73 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>171</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="B13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4515,7 +4553,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4751,4 +4789,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
+  <dimension ref="A2:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302925E5-9893-4894-A6FD-2B5E19DA1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3C779-4A03-4C27-8A8D-21E349937B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="4260" windowWidth="22410" windowHeight="15990" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="14640" yWindow="4260" windowWidth="22410" windowHeight="15990" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="268">
   <si>
     <t>Source</t>
   </si>
@@ -852,9 +852,6 @@
     <t>CPH Holder</t>
   </si>
   <si>
-    <t>Parsed set of CPH's. Check if we can make this work better to avoid repeat calls and this needs removing from the Party but including in the relationship doc.</t>
-  </si>
-  <si>
     <t>Address.CountrySubDivision</t>
   </si>
   <si>
@@ -933,17 +930,14 @@
     <t>Add created Date GOLD</t>
   </si>
   <si>
-    <t>Add json properties</t>
-  </si>
-  <si>
-    <t>Move upsert methods into shared service</t>
+    <t>Check all gold documents e.g. reference type keys not full objects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,14 +1012,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1162,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1257,9 +1243,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1290,7 +1273,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1841,15 +1824,15 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="38"/>
-      <c r="H15" s="37" t="s">
+      <c r="F15" s="37"/>
+      <c r="H15" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -1890,18 +1873,18 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="H20" s="40" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="H20" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -2197,7 +2180,7 @@
         <v>182</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2210,7 +2193,7 @@
         <v>196</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>201</v>
@@ -2306,7 +2289,7 @@
         <v>183</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2324,8 +2307,8 @@
       <c r="C44" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
       <c r="H44" s="4" t="s">
         <v>213</v>
       </c>
@@ -2338,7 +2321,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2367,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="13"/>
       <c r="E47" s="10" t="s">
@@ -2666,8 +2649,8 @@
       <c r="C15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
@@ -2739,7 +2722,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2958,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3045,14 +3028,14 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3166,13 +3149,13 @@
         <v>85</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3281,7 +3264,7 @@
         <v>110</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3322,15 +3305,15 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="38"/>
-      <c r="H25" s="37" t="s">
+      <c r="F25" s="37"/>
+      <c r="H25" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
@@ -3383,18 +3366,18 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="H30" s="40" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="H30" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -3449,7 +3432,7 @@
         <v>93</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -3506,11 +3489,11 @@
         <v>92</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3529,22 +3512,19 @@
         <v>25962203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="H40" s="4" t="s">
-        <v>243</v>
+      <c r="F40" s="10"/>
+      <c r="H40" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -3616,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3692,7 +3672,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
@@ -3773,7 +3753,7 @@
         <v>187</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3831,13 +3811,13 @@
         <v>85</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3971,7 +3951,7 @@
         <v>110</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4012,15 +3992,15 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="39"/>
-      <c r="H25" s="37" t="s">
+      <c r="F25" s="38"/>
+      <c r="H25" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
@@ -4073,18 +4053,18 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
-      <c r="H30" s="40" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="43"/>
+      <c r="H30" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -4139,7 +4119,7 @@
         <v>93</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -4203,7 +4183,7 @@
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4272,10 +4252,10 @@
         <v>176</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4290,7 +4270,7 @@
         <v>55</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4304,7 +4284,7 @@
         <v>176</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4319,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4476,7 +4456,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="7"/>
@@ -4525,10 +4505,10 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4553,7 +4533,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4793,58 +4773,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
-  <dimension ref="A2:A11"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>269</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4326FC-6CDA-483F-B8EA-0837EA6F76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3C779-4A03-4C27-8A8D-21E349937B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-70" yWindow="940" windowWidth="19330" windowHeight="20020" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="14640" yWindow="4260" windowWidth="22410" windowHeight="15990" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SAM Party" sheetId="3" r:id="rId4"/>
     <sheet name="Party Roles" sheetId="6" r:id="rId5"/>
     <sheet name="LOVs Required" sheetId="5" r:id="rId6"/>
+    <sheet name="TODOs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="268">
   <si>
     <t>Source</t>
   </si>
@@ -179,9 +180,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>FEATURE_NAME</t>
-  </si>
-  <si>
     <t>CPH_TYPE</t>
   </si>
   <si>
@@ -284,9 +282,6 @@
     <t>12/345/6789</t>
   </si>
   <si>
-    <t>NY 99568 79087</t>
-  </si>
-  <si>
     <t>OX1 3EQ</t>
   </si>
   <si>
@@ -332,12 +327,6 @@
     <t>CTT-BEEF</t>
   </si>
   <si>
-    <t>HERDMARK</t>
-  </si>
-  <si>
-    <t>ANIMAL_PURPOSE_CODE</t>
-  </si>
-  <si>
     <t>INTERVAL</t>
   </si>
   <si>
@@ -464,15 +453,6 @@
     <t>CPHH *</t>
   </si>
   <si>
-    <t>KEEPER_PARTY_IDS *</t>
-  </si>
-  <si>
-    <t>OWNER_PARTY_IDS *</t>
-  </si>
-  <si>
-    <t>TBC - Currently seems to be a migration status field</t>
-  </si>
-  <si>
     <t>SamCphHolding</t>
   </si>
   <si>
@@ -482,9 +462,6 @@
     <t>1-3, 10-12</t>
   </si>
   <si>
-    <t>Composite? Seems to map to single property.</t>
-  </si>
-  <si>
     <t>SamHerd</t>
   </si>
   <si>
@@ -539,9 +516,6 @@
     <t>12/345/6789, 12/345/6666</t>
   </si>
   <si>
-    <t>Parsed set of CPH's</t>
-  </si>
-  <si>
     <t>PartyTitleTypeIdentifier</t>
   </si>
   <si>
@@ -644,12 +618,6 @@
     <t>Roles[].RoleTypeId</t>
   </si>
   <si>
-    <t>Inferred as 'Holder'</t>
-  </si>
-  <si>
-    <t>Holder</t>
-  </si>
-  <si>
     <t>Roles[].SourceRoleName</t>
   </si>
   <si>
@@ -710,9 +678,6 @@
     <t>CPH_RELATIONSHIP_TYPE</t>
   </si>
   <si>
-    <t>SECONDARY_CPH</t>
-  </si>
-  <si>
     <t>FCLTY_SUB_BSNSS_ACTVTY_CODE</t>
   </si>
   <si>
@@ -737,14 +702,242 @@
     <t>Reference data table mentioned but can see where this comes from? TBC</t>
   </si>
   <si>
-    <t>Is this either an ORG or a Person?</t>
+    <t>PAON_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SAON_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>FEATURE_NAME *</t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>ND2150071600</t>
+  </si>
+  <si>
+    <t>SECONDARY_CPH *</t>
+  </si>
+  <si>
+    <t>TO ADD INTO SILVER as Sub Division</t>
+  </si>
+  <si>
+    <t>Location.Address.CountrySubDivision</t>
+  </si>
+  <si>
+    <t>ANIMAL_SPECIES_CODE *</t>
+  </si>
+  <si>
+    <t>Issue with Data currently</t>
+  </si>
+  <si>
+    <t>12/345/9999</t>
+  </si>
+  <si>
+    <t>CTT, SHP</t>
+  </si>
+  <si>
+    <t>CTT-BEEF, SHP-MEAT, SHP-NK</t>
+  </si>
+  <si>
+    <t>L135802 434203</t>
+  </si>
+  <si>
+    <t>The Estate Office</t>
+  </si>
+  <si>
+    <t>Princess Road</t>
+  </si>
+  <si>
+    <t>The Estate Office | Princess Road</t>
+  </si>
+  <si>
+    <t>MANCHESTER</t>
+  </si>
+  <si>
+    <t>M41 5SQ</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>PCPHLANDUSEDBYTCPH</t>
+  </si>
+  <si>
+    <t>73/285/0033</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SHP-MEAT,SHP-NK</t>
+  </si>
+  <si>
+    <t>Cherry Lane</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>TB-AFU-NA</t>
+  </si>
+  <si>
+    <t>HERDMARK *</t>
+  </si>
+  <si>
+    <t>ANIMAL_PURPOSE_CODE *</t>
+  </si>
+  <si>
+    <t>KEEPER_PARTY_IDS</t>
+  </si>
+  <si>
+    <t>OWNER_PARTY_IDS</t>
+  </si>
+  <si>
+    <t>Composite from INTERVAL and UNIT_OF_TIME</t>
+  </si>
+  <si>
+    <t>DiseaseType</t>
+  </si>
+  <si>
+    <t>IntervalUnitOfTime</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeeperPartyIdList </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwnerPartyIdList </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountyParishHoldingHerd </t>
+  </si>
+  <si>
+    <t>Trimmed trailing 3 chars</t>
+  </si>
+  <si>
+    <t>87/624/0042/25</t>
+  </si>
+  <si>
+    <t>12/345/6789/01</t>
+  </si>
+  <si>
+    <t>87/624/0042</t>
+  </si>
+  <si>
+    <t>SHP-MEAT-DLR</t>
+  </si>
+  <si>
+    <t>C10001</t>
+  </si>
+  <si>
+    <t>C10002</t>
+  </si>
+  <si>
+    <t>Inferred as code 'CPHHOLDER'</t>
+  </si>
+  <si>
+    <t>CPHHOLDER</t>
+  </si>
+  <si>
+    <t>CPH Holder</t>
+  </si>
+  <si>
+    <t>Address.CountrySubDivision</t>
+  </si>
+  <si>
+    <t>01/089/5301,09/020/5300,09/083/5301</t>
+  </si>
+  <si>
+    <t>N | Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LIVESTOCKOWNER</t>
+  </si>
+  <si>
+    <t>Livestock Owner</t>
+  </si>
+  <si>
+    <t>LIVESTOCKKEEPER,LIVESTOCKOWNER</t>
+  </si>
+  <si>
+    <t>10000000-0000-0000-0000-000000000001,10000000-0000-0000-0000-000000000002</t>
+  </si>
+  <si>
+    <t>Livestock Keeper,Livestock Owner</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>SecondaryCph</t>
+  </si>
+  <si>
+    <t>CphRelationshipType</t>
+  </si>
+  <si>
+    <t>PremiseSubActivityTypeCode</t>
+  </si>
+  <si>
+    <t>MovementRestrictionReasonCode</t>
+  </si>
+  <si>
+    <t>ProductionUsageCodeList</t>
+  </si>
+  <si>
+    <t>Multiple silver holdings</t>
+  </si>
+  <si>
+    <t>Manage holders differently vs CPHS</t>
+  </si>
+  <si>
+    <t>PartyInitials</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Holding composite keys</t>
+  </si>
+  <si>
+    <t>Holder composite keys</t>
+  </si>
+  <si>
+    <t>Party composite keys</t>
+  </si>
+  <si>
+    <t>Herd composite keys</t>
+  </si>
+  <si>
+    <t>IsHolder</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Add created Date GOLD</t>
+  </si>
+  <si>
+    <t>Check all gold documents e.g. reference type keys not full objects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +1012,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -948,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1016,18 +1216,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1041,13 +1229,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,6 +1243,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,23 +1588,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" style="3"/>
-    <col min="2" max="2" width="49.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="42.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.54296875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="37.54296875" style="3"/>
+    <col min="6" max="6" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="3.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,16 +1619,20 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1420,29 +1641,43 @@
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1455,181 +1690,228 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="33"/>
+      <c r="C11" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="37"/>
+      <c r="H15" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="H20" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5">
-        <v>12</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>53</v>
@@ -1637,312 +1919,481 @@
       <c r="F22" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="5">
+        <v>25962203</v>
+      </c>
+      <c r="F28" s="5">
+        <v>25962203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5">
+        <v>399568</v>
+      </c>
+      <c r="F29" s="5">
+        <v>399568</v>
+      </c>
+      <c r="H29" s="3">
+        <v>321500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>321500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5">
+        <v>579087</v>
+      </c>
+      <c r="F30" s="5">
+        <v>579087</v>
+      </c>
+      <c r="H30" s="3">
+        <v>971600</v>
+      </c>
+      <c r="I30" s="3">
+        <v>971600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="9">
+        <v>48</v>
+      </c>
+      <c r="I33" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="5">
-        <v>25962203</v>
-      </c>
-      <c r="F26" s="5">
-        <v>25962203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="5">
-        <v>399568</v>
-      </c>
-      <c r="F27" s="5">
-        <v>399568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5">
-        <v>579087</v>
-      </c>
-      <c r="F28" s="5">
-        <v>579087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="H39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="H44" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="E46" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="H46" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="B47" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="E47" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="H47" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.6328125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="37.54296875" style="3"/>
+    <col min="6" max="6" width="35.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1953,16 +2404,20 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1971,29 +2426,43 @@
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2003,13 +2472,19 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2017,299 +2492,367 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="H8" s="3">
+        <v>530509</v>
+      </c>
+      <c r="I8" s="3">
+        <v>530509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>230</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="E18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="E19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2323,7 +2866,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2351,14 +2894,14 @@
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2372,34 +2915,51 @@
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
     </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:F6 E17" numberStoredAsText="1"/>
+    <ignoredError sqref="E6:F6 E18:F18 H6:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945AFE6-1F03-45E2-947C-33FC1DE5D955}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.36328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="1.90625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.08984375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2410,564 +2970,650 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+        <v>258</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="26"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="37"/>
+      <c r="H25" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5">
-        <v>12</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="26"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="H30" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="5">
+      <c r="E36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="H38" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5">
         <v>25962203</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F39" s="5">
         <v>25962203</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="40" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="H40" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6 E17:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="E7 E18:F18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.7265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="37.54296875" style="3"/>
+    <col min="7" max="7" width="1.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="37.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2978,16 +3624,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -2997,529 +3643,654 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+        <v>258</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
       <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="38"/>
+      <c r="H25" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="43"/>
+      <c r="H30" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="5">
+      <c r="E36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="H38" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5">
         <v>25962203</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F39" s="5">
         <v>25962203</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="E38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="E39" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="B41" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="E41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="E42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:F6 E17:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="E7:F7 E18:F18 H18:I18 I7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3528,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3552,18 +4323,18 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9"/>
@@ -3585,14 +4356,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3605,10 +4376,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3618,15 +4389,15 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>133</v>
+      <c r="A7" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -3634,40 +4405,40 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3675,85 +4446,95 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>171</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="B13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>185</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>191</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>102</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="5" t="s">
-        <v>187</v>
+      <c r="F15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="9"/>
@@ -3888,16 +4669,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="31" customWidth="1"/>
     <col min="3" max="3" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -3905,87 +4686,148 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>175</v>
+      <c r="A5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>175</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>175</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>175</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>175</v>
+        <v>122</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>175</v>
+      <c r="B12" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
+  <dimension ref="A2:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3C779-4A03-4C27-8A8D-21E349937B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD4459-7553-42A4-9616-254FB6BE3819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="4260" windowWidth="22410" windowHeight="15990" activeTab="4" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <author>MarkGent1</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{AE1B0A95-DE1A-42F6-BC28-59C473E660CC}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{28F0283A-449E-4546-B1DB-CAD79C5F6A7E}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MarkGent1:</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Person
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{7523D9F3-025E-4605-A6C8-700EBBD223E1}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{715FE0AC-7ABA-41AE-B8CD-A6E616B4F936}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="269">
   <si>
     <t>Source</t>
   </si>
@@ -931,13 +931,16 @@
   </si>
   <si>
     <t>Check all gold documents e.g. reference type keys not full objects</t>
+  </si>
+  <si>
+    <t>SiteIdentifierType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,19 +1002,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1273,7 +1263,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3596,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F3751-E89E-4D65-AA53-4C5E240F65D4}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4299,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC36E6-DB4D-4568-987C-6F2A58047854}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4664,7 +4654,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4740,6 +4730,14 @@
         <v>166</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>164</v>
       </c>
     </row>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD4459-7553-42A4-9616-254FB6BE3819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F7F4B-25BB-46C1-AE61-E2AA0427C16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="1630" yWindow="2320" windowWidth="22410" windowHeight="15990" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="270">
   <si>
     <t>Source</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>SiteIdentifierType</t>
+  </si>
+  <si>
+    <t>Remove batchId from Gold</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4773,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4813,17 +4816,19 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="44" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="44" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="44" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F7F4B-25BB-46C1-AE61-E2AA0427C16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA753EA3-9C65-4677-A7D3-3550389D2B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1630" yWindow="2320" windowWidth="22410" windowHeight="15990" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="11930" yWindow="2040" windowWidth="25980" windowHeight="18670" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2368,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2935,7 +2935,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3590,7 +3590,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4776,7 +4776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA753EA3-9C65-4677-A7D3-3550389D2B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E8F8D-7D7F-4FF9-8E26-1044F3DCC8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11930" yWindow="2040" windowWidth="25980" windowHeight="18670" activeTab="1" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="-50" yWindow="630" windowWidth="22150" windowHeight="20210" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="271">
   <si>
     <t>Source</t>
   </si>
@@ -315,9 +315,6 @@
     <t>PERMANENT</t>
   </si>
   <si>
-    <t>TB-AFU</t>
-  </si>
-  <si>
     <t>TB</t>
   </si>
   <si>
@@ -937,6 +934,12 @@
   </si>
   <si>
     <t>Remove batchId from Gold</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>RM</t>
   </si>
 </sst>
 </file>
@@ -1583,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,10 +1625,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1643,7 +1646,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -1659,15 +1662,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1709,7 +1712,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1741,10 +1744,10 @@
         <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1775,23 +1778,23 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="26"/>
       <c r="H12" s="20"/>
@@ -1810,7 +1813,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="26"/>
       <c r="H14" s="20"/>
@@ -1818,12 +1821,12 @@
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="37"/>
       <c r="H15" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I15" s="38"/>
     </row>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="26"/>
       <c r="H17" s="20"/>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="26"/>
       <c r="H19" s="20"/>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -1875,7 +1878,7 @@
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
       <c r="H20" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I20" s="43"/>
     </row>
@@ -1893,10 +1896,10 @@
         <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1913,10 +1916,10 @@
         <v>53</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1947,31 +1950,31 @@
         <v>51</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1999,7 +2002,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
@@ -2071,41 +2074,41 @@
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="13"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="H32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="13"/>
       <c r="E33" s="10"/>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="13"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="H34" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2170,35 +2173,35 @@
     </row>
     <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="H37" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2209,19 +2212,19 @@
         <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2229,7 +2232,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
@@ -2247,19 +2250,19 @@
         <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2267,7 +2270,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
@@ -2279,15 +2282,15 @@
     </row>
     <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="H43" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2298,44 +2301,44 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="H44" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="13"/>
       <c r="E46" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="10"/>
       <c r="H46" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -2343,18 +2346,18 @@
         <v>35</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="13"/>
       <c r="E47" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F47" s="10"/>
       <c r="H47" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113F5DD-FFF9-4DD1-8866-48A257EC0332}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2407,10 +2410,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -2428,7 +2431,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -2444,15 +2447,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2465,16 +2468,16 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2499,18 +2502,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="3">
         <v>530509</v>
@@ -2521,23 +2524,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2546,12 +2549,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="5"/>
       <c r="I10" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2559,30 +2562,30 @@
         <v>34</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
@@ -2595,33 +2598,33 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
@@ -2634,33 +2637,33 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="13"/>
       <c r="E17" s="10"/>
@@ -2668,64 +2671,64 @@
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="13"/>
       <c r="E18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="13"/>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="5" t="s">
@@ -2743,10 +2746,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2759,50 +2762,50 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2973,10 +2976,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="24" t="s">
@@ -2994,7 +2997,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -3009,26 +3012,26 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3041,7 +3044,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -3063,178 +3066,178 @@
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -3244,26 +3247,26 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3299,12 +3302,12 @@
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="37"/>
       <c r="H25" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" s="38"/>
     </row>
@@ -3324,7 +3327,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3349,7 +3352,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3360,7 +3363,7 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -3368,7 +3371,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="42"/>
       <c r="H30" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I30" s="43"/>
     </row>
@@ -3377,15 +3380,15 @@
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -3393,15 +3396,15 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3409,23 +3412,23 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -3435,15 +3438,15 @@
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -3451,7 +3454,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3464,10 +3467,10 @@
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
@@ -3476,17 +3479,17 @@
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3494,7 +3497,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3507,49 +3510,49 @@
     </row>
     <row r="40" spans="1:9" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="I43" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
@@ -3561,20 +3564,20 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3593,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B41"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3623,10 +3626,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -3638,7 +3641,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -3653,26 +3656,26 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3685,13 +3688,13 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3713,216 +3716,216 @@
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="12"/>
     </row>
@@ -3931,26 +3934,26 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3975,7 +3978,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3986,12 +3989,12 @@
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="38"/>
       <c r="H25" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" s="38"/>
     </row>
@@ -4011,7 +4014,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4036,7 +4039,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4047,7 +4050,7 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -4055,7 +4058,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="43"/>
       <c r="H30" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I30" s="43"/>
     </row>
@@ -4064,15 +4067,15 @@
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -4080,15 +4083,15 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4096,28 +4099,28 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="H34" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4125,15 +4128,15 @@
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4141,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4154,10 +4157,10 @@
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
@@ -4166,17 +4169,17 @@
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4184,7 +4187,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>57</v>
@@ -4217,10 +4220,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="9"/>
       <c r="E41" s="5" t="s">
@@ -4232,52 +4235,52 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="9"/>
       <c r="E42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4324,10 +4327,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9"/>
@@ -4349,7 +4352,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -4369,10 +4372,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4390,7 +4393,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -4406,32 +4409,32 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4443,27 +4446,27 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
@@ -4475,10 +4478,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4491,25 +4494,25 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
@@ -4518,15 +4521,15 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4668,10 +4671,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
@@ -4679,26 +4682,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4706,10 +4709,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4717,42 +4720,42 @@
         <v>45</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4760,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4776,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4787,47 +4790,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-maps/sam-silver-attr-map.xlsx
+++ b/docs/data-maps/sam-silver-attr-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\defra\ls-keeper-data-api\docs\data-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E8F8D-7D7F-4FF9-8E26-1044F3DCC8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7A4F6-0F2D-469C-81A1-44E32BC06A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="630" windowWidth="22150" windowHeight="20210" activeTab="6" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{1BA62C16-295B-4239-B5A9-F8E1565DE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM CPHHolding" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="SAM Party" sheetId="3" r:id="rId4"/>
     <sheet name="Party Roles" sheetId="6" r:id="rId5"/>
     <sheet name="LOVs Required" sheetId="5" r:id="rId6"/>
-    <sheet name="TODOs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="264">
   <si>
     <t>Source</t>
   </si>
@@ -894,59 +893,38 @@
     <t>ProductionUsageCodeList</t>
   </si>
   <si>
-    <t>Multiple silver holdings</t>
-  </si>
-  <si>
-    <t>Manage holders differently vs CPHS</t>
-  </si>
-  <si>
     <t>PartyInitials</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>Holding composite keys</t>
-  </si>
-  <si>
-    <t>Holder composite keys</t>
-  </si>
-  <si>
-    <t>Party composite keys</t>
-  </si>
-  <si>
-    <t>Herd composite keys</t>
-  </si>
-  <si>
     <t>IsHolder</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>Add created Date GOLD</t>
-  </si>
-  <si>
-    <t>Check all gold documents e.g. reference type keys not full objects</t>
-  </si>
-  <si>
     <t>SiteIdentifierType</t>
   </si>
   <si>
-    <t>Remove batchId from Gold</t>
-  </si>
-  <si>
     <t>AH</t>
   </si>
   <si>
     <t>RM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FM-FM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,13 +983,6 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1144,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1269,7 +1240,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF1DC-D2AC-4A4B-82BB-D60D1A15ED0A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2215,16 +2185,16 @@
         <v>188</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2253,16 +2223,16 @@
         <v>187</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3024,14 +2994,14 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3145,13 +3115,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3668,7 +3638,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
@@ -3807,13 +3777,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -4452,7 +4422,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="7"/>
@@ -4741,7 +4711,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>163</v>
@@ -4773,67 +4743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719B872-65ED-4B8C-BD24-70C5594D80D1}">
-  <dimension ref="A2:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="58.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>